--- a/data/trans_bre/IP16B10-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16B10-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,26</t>
+          <t>0,0; 80,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 151,66</t>
+          <t>0,0; 401,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,59</t>
+          <t>0,0; 67,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 174,64</t>
+          <t>0,0; 205,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/IP16B10-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16B10-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,09</t>
+          <t>0,0; 60,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 401,81</t>
+          <t>0,0; 151,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,32</t>
+          <t>0,0; 66,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 205,77</t>
+          <t>0,0; 197,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
